--- a/templates/template_import_data_changes.xlsx
+++ b/templates/template_import_data_changes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8979FDA-CEDD-4D4F-80D0-DE2501E70859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE3DD52-9FAE-479E-A94F-0ABE31C5B1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,8 +153,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Animales" displayName="Animales" ref="A1:E11" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:E11" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Animales" displayName="Animales" ref="A1:E15" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:E15" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Único" dataDxfId="4"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="ID Electrónico" dataDxfId="3"/>
@@ -429,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -536,10 +536,31 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D11" xr:uid="{40CB0767-79D4-4843-8C91-AD5A94C0443C}">
-      <formula1>"Práctico,Único,Fecha de nacimiento,Madre,Padre,Estatus,Id electrónico"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D15" xr:uid="{40CB0767-79D4-4843-8C91-AD5A94C0443C}">
+      <formula1>"Práctico,Único,Fecha de nacimiento,Madre,Padre,Estatus,Id electrónico,Clasificación,Color,Composición racial,Cruzamiento dirigido,Nombre,Propietario,Tetas"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
